--- a/outputs/MLK_PMT_10103_-_V-003.xlsx
+++ b/outputs/MLK_PMT_10103_-_V-003.xlsx
@@ -882,11 +882,7 @@
           <t>MLK_PMT_10103_-_V-003</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>Expansion Tank</t>
-        </is>
-      </c>
+      <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Shell &amp; Dished End</t>
@@ -894,12 +890,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -919,12 +915,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>200 C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -934,7 +930,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>185 C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -951,7 +947,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -966,17 +962,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>200 C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -986,7 +982,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>185 C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1018,17 +1014,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Gr.B</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>200 C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1038,7 +1034,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>185 C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1055,7 +1051,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1070,17 +1066,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>200 C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1090,7 +1086,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>185 C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CONDENSATE</t>
+          <t>Condensate</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1127,12 +1123,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>200 C</t>
+          <t>200° C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1142,7 +1138,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>185 C</t>
+          <t>185° C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">

--- a/outputs/MLK_PMT_10103_-_V-003.xlsx
+++ b/outputs/MLK_PMT_10103_-_V-003.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -885,7 +885,7 @@
       <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell &amp; Dished End</t>
+          <t>SHELL &amp; DISHED END</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>200° C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>185° C</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -942,12 +942,12 @@
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Flange, Manhole Flange and Cover</t>
+          <t>FLANGE, MANHOLE FLANGE AND COVER</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -960,19 +960,14 @@
           <t>SA-105</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>200° C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -982,7 +977,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>185° C</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -994,12 +989,12 @@
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pipe</t>
+          <t>PIPE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1014,17 +1009,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Gr.B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>200° C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1034,7 +1029,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>185° C</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1046,12 +1041,12 @@
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Socket</t>
+          <t>SOCKET</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1064,19 +1059,14 @@
           <t>SA-105</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>200° C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1086,7 +1076,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>185° C</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1098,12 +1088,12 @@
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Reinforced Plate</t>
+          <t>REINFORCED PLATE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Condensate</t>
+          <t>CONDENSATE</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1123,12 +1113,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>200° C</t>
+          <t>200 °C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1138,7 +1128,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>185° C</t>
+          <t>185 °C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1147,25 +1137,2590 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" s="29" t="inlineStr">
+        <is>
+          <t>V-002</t>
+        </is>
+      </c>
+      <c r="C13" s="29" t="inlineStr">
+        <is>
+          <t>MLK_PMT_10104_-_V-004</t>
+        </is>
+      </c>
+      <c r="D13" s="29" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SHELL PLATE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ASTM A240</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ELLIPSOIDAL HEAD</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ASTM A240</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FLANGE</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NECK</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ASTM A240</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GRATING</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FLAT PLATE</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FLAT PLATE</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SIDE RAIL</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ROUND BAR</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hot Water</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B42" s="29" t="inlineStr">
+        <is>
+          <t>V-003</t>
+        </is>
+      </c>
+      <c r="C42" s="29" t="inlineStr">
+        <is>
+          <t>MLK_PMT_10107_-_H-001</t>
+        </is>
+      </c>
+      <c r="D42" s="29" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Nozzle</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SA-106</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Nozzle Flange</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Blind Flange</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Weld Neck Flange</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Full Weld Neck F.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>SA-36</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Flange</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Tube Sheet</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tube</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>SA-213</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>T11</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Baffle Plate</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tie Rod</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>SA-106</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Spacer</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>SA-106</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Seal Strip</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Impingement Plate</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Wing</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Weir</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Weir Strip</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>304L</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Nozzle</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>SA-106</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Flange</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>STEAM</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>300 °F</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>100 psi (g)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>275 °F</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>80 psi (g)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B13:B41"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A8:A12"/>
+    <mergeCell ref="D13:D41"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D42:D62"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C13:C41"/>
+    <mergeCell ref="C42:C62"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A13:A41"/>
+    <mergeCell ref="B42:B62"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A42:A62"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
   </mergeCells>

--- a/outputs/MLK_PMT_10103_-_V-003.xlsx
+++ b/outputs/MLK_PMT_10103_-_V-003.xlsx
@@ -873,14 +873,10 @@
           <t>MLK_PMT_10103_-_V-003</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>Air Receiver</t>
-        </is>
-      </c>
+      <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SHELL &amp; DISHED END</t>
+          <t>Shell &amp; Dished End</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -910,7 +906,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -920,7 +916,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -930,14 +926,14 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>FLANGE, MANHOLE FLANGE AND COVER</t>
+          <t>Flange, Manhole Flange and Cover</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -957,7 +953,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,7 +963,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -977,14 +973,14 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>PIPE</t>
+          <t>Pipe</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1009,7 +1005,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1029,14 +1025,14 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCKET</t>
+          <t>Socket</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1056,7 +1052,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1066,7 +1062,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1076,14 +1072,14 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>REINFORCED PLATE</t>
+          <t>Reinforced Plate</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1108,7 +1104,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1118,7 +1114,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1128,7 +1124,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1,000 kPag</t>
+          <t>1,000 kPaG</t>
         </is>
       </c>
     </row>
